--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -21931,7 +21931,7 @@
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
-        <v>45446.6409606481</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B788" t="n">
         <v>2100</v>
@@ -21952,6 +21952,32 @@
         <v>370</v>
       </c>
       <c r="H788" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>45447.4073032407</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C789" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="E789" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="G789" t="s">
+        <v>370</v>
+      </c>
+      <c r="H789" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -21957,7 +21957,7 @@
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
-        <v>45447.4073032407</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B789" t="n">
         <v>2700</v>
@@ -21978,6 +21978,32 @@
         <v>370</v>
       </c>
       <c r="H789" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>45448.365787037</v>
+      </c>
+      <c r="B790" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C790" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="E790" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="G790" t="s">
+        <v>370</v>
+      </c>
+      <c r="H790" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -21983,7 +21983,7 @@
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
-        <v>45448.365787037</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B790" t="n">
         <v>11700</v>
@@ -22004,6 +22004,32 @@
         <v>370</v>
       </c>
       <c r="H790" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>45449.3817013889</v>
+      </c>
+      <c r="B791" t="n">
+        <v>12900</v>
+      </c>
+      <c r="C791" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0.501999974250793</v>
+      </c>
+      <c r="E791" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0.504000008106232</v>
+      </c>
+      <c r="G791" t="s">
+        <v>321</v>
+      </c>
+      <c r="H791" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22009,7 +22009,7 @@
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
-        <v>45449.3817013889</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B791" t="n">
         <v>12900</v>
@@ -22030,6 +22030,32 @@
         <v>321</v>
       </c>
       <c r="H791" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>45450.441724537</v>
+      </c>
+      <c r="B792" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C792" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0.504000008106232</v>
+      </c>
+      <c r="E792" t="n">
+        <v>0.504000008106232</v>
+      </c>
+      <c r="F792" t="n">
+        <v>0.505999982357025</v>
+      </c>
+      <c r="G792" t="s">
+        <v>371</v>
+      </c>
+      <c r="H792" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22035,7 +22035,7 @@
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
-        <v>45450.441724537</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B792" t="n">
         <v>5400</v>
@@ -22056,6 +22056,32 @@
         <v>371</v>
       </c>
       <c r="H792" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>45453.6278240741</v>
+      </c>
+      <c r="B793" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C793" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="E793" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="G793" t="s">
+        <v>370</v>
+      </c>
+      <c r="H793" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22061,7 +22061,7 @@
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
-        <v>45453.6278240741</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B793" t="n">
         <v>1200</v>
@@ -22082,6 +22082,32 @@
         <v>370</v>
       </c>
       <c r="H793" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>45455.6425347222</v>
+      </c>
+      <c r="B794" t="n">
+        <v>9900</v>
+      </c>
+      <c r="C794" t="n">
+        <v>0.512000024318695</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="E794" t="n">
+        <v>0.512000024318695</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.509999990463257</v>
+      </c>
+      <c r="G794" t="s">
+        <v>274</v>
+      </c>
+      <c r="H794" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22087,27 +22087,79 @@
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
-        <v>45455.6425347222</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B794" t="n">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="C794" t="n">
-        <v>0.512000024318695</v>
+        <v>0.508000016212463</v>
       </c>
       <c r="D794" t="n">
         <v>0.508000016212463</v>
       </c>
       <c r="E794" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="G794" t="s">
+        <v>370</v>
+      </c>
+      <c r="H794" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B795" t="n">
+        <v>9900</v>
+      </c>
+      <c r="C795" t="n">
         <v>0.512000024318695</v>
       </c>
-      <c r="F794" t="n">
+      <c r="D795" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="E795" t="n">
+        <v>0.512000024318695</v>
+      </c>
+      <c r="F795" t="n">
         <v>0.509999990463257</v>
       </c>
-      <c r="G794" t="s">
+      <c r="G795" t="s">
         <v>274</v>
       </c>
-      <c r="H794" t="s">
+      <c r="H795" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>45456.6493171296</v>
+      </c>
+      <c r="B796" t="n">
+        <v>58500</v>
+      </c>
+      <c r="C796" t="n">
+        <v>0.51800000667572</v>
+      </c>
+      <c r="D796" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="E796" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.508000016212463</v>
+      </c>
+      <c r="G796" t="s">
+        <v>370</v>
+      </c>
+      <c r="H796" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22139,7 +22139,7 @@
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
-        <v>45456.6493171296</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B796" t="n">
         <v>58500</v>
@@ -22160,6 +22160,32 @@
         <v>370</v>
       </c>
       <c r="H796" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>45457.649525463</v>
+      </c>
+      <c r="B797" t="n">
+        <v>51600</v>
+      </c>
+      <c r="C797" t="n">
+        <v>0.505999982357025</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0.479999989271164</v>
+      </c>
+      <c r="E797" t="n">
+        <v>0.504000008106232</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G797" t="s">
+        <v>367</v>
+      </c>
+      <c r="H797" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1128,6 +1128,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.505999982357025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435999989509583</t>
   </si>
 </sst>
 </file>
@@ -22165,7 +22168,7 @@
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
-        <v>45457.649525463</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B797" t="n">
         <v>51600</v>
@@ -22174,7 +22177,7 @@
         <v>0.505999982357025</v>
       </c>
       <c r="D797" t="n">
-        <v>0.479999989271164</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="E797" t="n">
         <v>0.504000008106232</v>
@@ -22186,6 +22189,32 @@
         <v>367</v>
       </c>
       <c r="H797" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>45460.6196180556</v>
+      </c>
+      <c r="B798" t="n">
+        <v>16800</v>
+      </c>
+      <c r="C798" t="n">
+        <v>0.479000002145767</v>
+      </c>
+      <c r="D798" t="n">
+        <v>0.389999985694885</v>
+      </c>
+      <c r="E798" t="n">
+        <v>0.389999985694885</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.435999989509583</v>
+      </c>
+      <c r="G798" t="s">
+        <v>372</v>
+      </c>
+      <c r="H798" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22194,7 +22194,7 @@
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
-        <v>45460.6196180556</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B798" t="n">
         <v>16800</v>
@@ -22215,6 +22215,32 @@
         <v>372</v>
       </c>
       <c r="H798" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>45461.5548726852</v>
+      </c>
+      <c r="B799" t="n">
+        <v>14400</v>
+      </c>
+      <c r="C799" t="n">
+        <v>0.474999994039536</v>
+      </c>
+      <c r="D799" t="n">
+        <v>0.435999989509583</v>
+      </c>
+      <c r="E799" t="n">
+        <v>0.435999989509583</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.474999994039536</v>
+      </c>
+      <c r="G799" t="s">
+        <v>325</v>
+      </c>
+      <c r="H799" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22220,7 +22220,7 @@
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
-        <v>45461.5548726852</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B799" t="n">
         <v>14400</v>
@@ -22241,6 +22241,32 @@
         <v>325</v>
       </c>
       <c r="H799" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>45462.6445138889</v>
+      </c>
+      <c r="B800" t="n">
+        <v>29100</v>
+      </c>
+      <c r="C800" t="n">
+        <v>0.46000000834465</v>
+      </c>
+      <c r="D800" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="E800" t="n">
+        <v>0.439999997615814</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="G800" t="s">
+        <v>367</v>
+      </c>
+      <c r="H800" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22246,7 +22246,7 @@
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
-        <v>45462.6445138889</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B800" t="n">
         <v>29100</v>
@@ -22267,6 +22267,32 @@
         <v>367</v>
       </c>
       <c r="H800" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>45463.6180902778</v>
+      </c>
+      <c r="B801" t="n">
+        <v>38100</v>
+      </c>
+      <c r="C801" t="n">
+        <v>0.469999998807907</v>
+      </c>
+      <c r="D801" t="n">
+        <v>0.435999989509583</v>
+      </c>
+      <c r="E801" t="n">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0.437999993562698</v>
+      </c>
+      <c r="G801" t="s">
+        <v>340</v>
+      </c>
+      <c r="H801" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/JNX.MI.xlsx
+++ b/data/JNX.MI.xlsx
@@ -22270,32 +22270,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>45463.6180902778</v>
-      </c>
-      <c r="B801" t="n">
-        <v>38100</v>
-      </c>
-      <c r="C801" t="n">
-        <v>0.469999998807907</v>
-      </c>
-      <c r="D801" t="n">
-        <v>0.435999989509583</v>
-      </c>
-      <c r="E801" t="n">
-        <v>0.449999988079071</v>
-      </c>
-      <c r="F801" t="n">
-        <v>0.437999993562698</v>
-      </c>
-      <c r="G801" t="s">
-        <v>340</v>
-      </c>
-      <c r="H801" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
